--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.032878</v>
+        <v>3.167224666666667</v>
       </c>
       <c r="H2">
-        <v>39.098634</v>
+        <v>9.501674000000001</v>
       </c>
       <c r="I2">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134895</v>
       </c>
       <c r="J2">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134894</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>1525.427510142314</v>
+        <v>244.1598398429089</v>
       </c>
       <c r="R2">
-        <v>13728.84759128082</v>
+        <v>2197.438558586181</v>
       </c>
       <c r="S2">
-        <v>0.009571180753587871</v>
+        <v>0.001762167410657304</v>
       </c>
       <c r="T2">
-        <v>0.009571180753587871</v>
+        <v>0.001762167410657304</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.032878</v>
+        <v>3.167224666666667</v>
       </c>
       <c r="H3">
-        <v>39.098634</v>
+        <v>9.501674000000001</v>
       </c>
       <c r="I3">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134895</v>
       </c>
       <c r="J3">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134894</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>1323.880233800779</v>
+        <v>321.7267998830543</v>
       </c>
       <c r="R3">
-        <v>11914.92210420701</v>
+        <v>2895.541198947488</v>
       </c>
       <c r="S3">
-        <v>0.008306587451426834</v>
+        <v>0.002321989079996719</v>
       </c>
       <c r="T3">
-        <v>0.008306587451426832</v>
+        <v>0.002321989079996718</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.032878</v>
+        <v>3.167224666666667</v>
       </c>
       <c r="H4">
-        <v>39.098634</v>
+        <v>9.501674000000001</v>
       </c>
       <c r="I4">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134895</v>
       </c>
       <c r="J4">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134894</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>1851.017818113035</v>
+        <v>449.8307505040037</v>
       </c>
       <c r="R4">
-        <v>16659.16036301731</v>
+        <v>4048.476754536033</v>
       </c>
       <c r="S4">
-        <v>0.01161407277466685</v>
+        <v>0.003246549839480873</v>
       </c>
       <c r="T4">
-        <v>0.01161407277466685</v>
+        <v>0.003246549839480873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1187.759399</v>
       </c>
       <c r="I5">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903682</v>
       </c>
       <c r="J5">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>46340.25993503255</v>
+        <v>30521.26863453216</v>
       </c>
       <c r="R5">
-        <v>417062.339415293</v>
+        <v>274691.4177107894</v>
       </c>
       <c r="S5">
-        <v>0.2907584929847395</v>
+        <v>0.2202802268968294</v>
       </c>
       <c r="T5">
-        <v>0.2907584929847395</v>
+        <v>0.2202802268968294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1187.759399</v>
       </c>
       <c r="I6">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903682</v>
       </c>
       <c r="J6">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>40217.54803114586</v>
@@ -818,10 +818,10 @@
         <v>361957.9322803127</v>
       </c>
       <c r="S6">
-        <v>0.2523419953507245</v>
+        <v>0.2902608902538085</v>
       </c>
       <c r="T6">
-        <v>0.2523419953507244</v>
+        <v>0.2902608902538084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1187.759399</v>
       </c>
       <c r="I7">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903682</v>
       </c>
       <c r="J7">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>56231.21798015321</v>
@@ -880,10 +880,10 @@
         <v>506080.9618213788</v>
       </c>
       <c r="S7">
-        <v>0.3528185690267482</v>
+        <v>0.4058358649397304</v>
       </c>
       <c r="T7">
-        <v>0.3528185690267482</v>
+        <v>0.4058358649397303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>98.886061</v>
       </c>
       <c r="I8">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949697</v>
       </c>
       <c r="J8">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949695</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>3858.025265512114</v>
+        <v>2541.026435600308</v>
       </c>
       <c r="R8">
-        <v>34722.22738960903</v>
+        <v>22869.23792040277</v>
       </c>
       <c r="S8">
-        <v>0.0242068908044541</v>
+        <v>0.01833927306519569</v>
       </c>
       <c r="T8">
-        <v>0.0242068908044541</v>
+        <v>0.01833927306519568</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>98.886061</v>
       </c>
       <c r="I9">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949697</v>
       </c>
       <c r="J9">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949695</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>3348.283256042093</v>
@@ -1004,10 +1004,10 @@
         <v>30134.54930437883</v>
       </c>
       <c r="S9">
-        <v>0.02100855271372469</v>
+        <v>0.02416546324425458</v>
       </c>
       <c r="T9">
-        <v>0.02100855271372469</v>
+        <v>0.02416546324425457</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>98.886061</v>
       </c>
       <c r="I10">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949697</v>
       </c>
       <c r="J10">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949695</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>4681.489917883384</v>
@@ -1066,10 +1066,10 @@
         <v>42133.40926095045</v>
       </c>
       <c r="S10">
-        <v>0.02937365813992749</v>
+        <v>0.03378757527004671</v>
       </c>
       <c r="T10">
-        <v>0.02937365813992749</v>
+        <v>0.0337875752700467</v>
       </c>
     </row>
   </sheetData>
